--- a/3d/amir.xlsx
+++ b/3d/amir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FAD487-32E0-4DA9-AF5B-10E3F151575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A6C19F-39F7-42F8-AF7E-80A09AF2098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +688,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>33</v>
@@ -710,7 +710,8 @@
         <v>5</v>
       </c>
       <c r="B12" s="5">
-        <v>2</v>
+        <f>SQRT(3)</f>
+        <v>1.7320508075688772</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>42</v>
@@ -1005,7 +1006,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
